--- a/DOC/GAPO_V3.xlsx
+++ b/DOC/GAPO_V3.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="12105" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TT" sheetId="2" r:id="rId1"/>
     <sheet name="Vozík" sheetId="3" r:id="rId2"/>
     <sheet name="aRD,Rz" sheetId="6" r:id="rId3"/>
-    <sheet name="alternativa_aRD,Rz" sheetId="4" r:id="rId4"/>
-    <sheet name="obecné rozšíř. o výpis param. " sheetId="5" r:id="rId5"/>
-    <sheet name="rosta" sheetId="1" r:id="rId6"/>
+    <sheet name="obecné rozšíř. o výpis param. " sheetId="5" r:id="rId4"/>
+    <sheet name="rosta" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>TT Changes</t>
   </si>
@@ -130,9 +129,6 @@
   </si>
   <si>
     <t>*změny proběhnou pouze v případě změny aRD a Rz (pouze v případě Rx,R se pro daný pohon nic neděje)</t>
-  </si>
-  <si>
-    <t>*S&amp;G, PP režimy se nezohledňují, pouze ve validaci zda se stíhá přejezd</t>
   </si>
   <si>
     <t>nepřepínatelné, pouze ikona co zůstane a co se bude měnit (možná by bylo zavadějící)</t>
@@ -250,9 +246,6 @@
     <t>RD,DD,M,P</t>
   </si>
   <si>
-    <t>Globální aktualizace parametrů objektů v kontinuálním režimu  z důvodu změny parametrů pohonu aktuální rychlosti pohonu a rozestupu</t>
-  </si>
-  <si>
     <t>CT, RD,K,P,M</t>
   </si>
   <si>
@@ -284,9 +277,6 @@
   </si>
   <si>
     <t>read-only + nedojde k přepoču</t>
-  </si>
-  <si>
-    <t>Globální aktualizace parametrů (RD, M, P) objektů v kontinuálním režimu  z důvodu změny parametrů pohonu aktuální rychlosti pohonu a rozestupu</t>
   </si>
   <si>
     <t>možnost jednotlivé parametry  (šedé slopce) ještě rozdělit před změnou a po změně</t>
@@ -483,9 +473,6 @@
     </r>
   </si>
   <si>
-    <t>pozn. pohon bez přiřazení se nemění, neznáme rotaci vozíku, situaci ošetřuje při přiřazování pohonu validace parametrů objektu</t>
-  </si>
-  <si>
     <r>
       <t>pozn. nepřiřazený pohon se mění (známe z TT nové Rz),</t>
     </r>
@@ -518,23 +505,157 @@
     <t>*změny proběhnou pouze pokud mají vliv na aRD resp. Rz</t>
   </si>
   <si>
-    <t>*objekty v PP režimu se zohledňují, pouze ve validaci se kontroluje zda se stíhá přejezd</t>
-  </si>
-  <si>
-    <t>Globální aktualizace parametrů pohonů a objektů ve všech režimech  z důvodu změny parametrů vozíku</t>
-  </si>
-  <si>
     <t>*objekty v S&amp;G režimu se pouze zobrazuji (nelze volit volby), pouze ve validaci se kontroluje zda se stíhá přejezd a zda se vozík vejde celý do kabiny (zde postačí modré upozornění)</t>
   </si>
   <si>
     <t>*S&amp;G, PP režimy se zohledňují (S&amp;G neobsahuje volby, PP obsahuje volby pouze pokud je změna na základě změny R nutná), pouze ve validaci zda se stíhá přejezd a jedostatečný mezerový fond</t>
+  </si>
+  <si>
+    <t>Globální aktualizace parametrů objektů ve všech režimech a pohonů z důvodu změny aktuální rychlosti pohonů či rozestupu</t>
+  </si>
+  <si>
+    <t>O5 -PP</t>
+  </si>
+  <si>
+    <t>O6- S&amp;G</t>
+  </si>
+  <si>
+    <t>bez volby</t>
+  </si>
+  <si>
+    <t>O3 - KK</t>
+  </si>
+  <si>
+    <t>O4 - KK</t>
+  </si>
+  <si>
+    <t>O7 - KK</t>
+  </si>
+  <si>
+    <t>O2 -KK</t>
+  </si>
+  <si>
+    <t>S&amp;G,KK,PP  režimy objektů</t>
+  </si>
+  <si>
+    <t>nevypisují se objekty bez přiřazených pohonu, pohony bez přizení k objektům a pohony s přiřazenými objekty, na kterých nedošlo ke změně aRD nebo Rz</t>
+  </si>
+  <si>
+    <t>vypisují se všechny objekty a pohony (4 varianty přiřazení/nepřiřazení)</t>
+  </si>
+  <si>
+    <t>pohon bez přiřazení  k objektu se nevypisuje, protože se nemění, neznáme rotaci vozíku, situaci při přiřazování pohonu hlídá validace parametrů objektu, vše ostatní se vypisuje</t>
+  </si>
+  <si>
+    <t>O1 - KK</t>
+  </si>
+  <si>
+    <t>O2 - KK</t>
+  </si>
+  <si>
+    <t>O8 - PP</t>
+  </si>
+  <si>
+    <t>*objekty v PP režimu se zohledňují, a zároveň se ve validaci kontroluje zda se stíhá přejezd</t>
+  </si>
+  <si>
+    <t>O7 - S&amp;G</t>
+  </si>
+  <si>
+    <t>O5 - KK</t>
+  </si>
+  <si>
+    <t>O6 - KK</t>
+  </si>
+  <si>
+    <t>O9 - KK</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">volba bude možná, pouze pokud </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pův.(DV+M)&lt;=novéDV</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a samozřejmě zároveň je splněna podmínka stíhání přejezdu, která platí pro veškeré volby objektu v PP režimu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">jedna z voleb </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>je možná</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pouze pokud </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>neopovídá</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rychlost přejezdu aktuální rychlosti použitého pohonu</t>
+    </r>
+  </si>
+  <si>
+    <t>Globální aktualizace parametrů objektů ve všech režimech a k nim přiařazenžých pohonů a z důvodu změny parametrů vozíku</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,8 +763,40 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,8 +869,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="58">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -1420,11 +1597,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1603,6 +1820,130 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1617,192 +1958,87 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1845,7 +2081,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -4371,13 +4656,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>129409</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>14780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>319909</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>14780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4407,13 +4692,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>327134</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>15437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>508109</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>15437</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4443,13 +4728,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>314308</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>180957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4481,13 +4766,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>514331</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>190479</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4851,7 +5136,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="133333" cy="142857"/>
@@ -4884,7 +5169,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152381" cy="171429"/>
@@ -4916,9 +5201,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:colOff>152400</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152381" cy="171429"/>
     <xdr:pic>
@@ -4936,7 +5221,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1571625" y="2714625"/>
+          <a:off x="1762125" y="3076575"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5510,7 +5795,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152381" cy="171429"/>
@@ -5543,7 +5828,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="152381" cy="171429"/>
@@ -5563,6 +5848,204 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2752725" y="3267075"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Obrázek 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="3648075"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="133333" cy="142857"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Obrázek 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2943225" y="3467100"/>
+          <a:ext cx="133333" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Obrázek 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2124075" y="3448050"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Obrázek 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="3457575"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Obrázek 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333750" y="3467100"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Obrázek 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="3448050"/>
           <a:ext cx="152381" cy="171429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5791,18 +6274,241 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66658</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Obrázek 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="2124075"/>
+          <a:ext cx="133333" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95231</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Obrázek 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="2105025"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66658</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Obrázek 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="1933575"/>
+          <a:ext cx="133333" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>95231</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Obrázek 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1971675" y="1914525"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76181</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Obrázek 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552575" y="1733550"/>
+          <a:ext cx="152381" cy="171429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85708</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Obrázek 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1981200" y="1743075"/>
+          <a:ext cx="133333" cy="142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66658</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>171432</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Obrázek 7"/>
+    <xdr:ext cx="133333" cy="142857"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Obrázek 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5824,99 +6530,18 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95231</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180954</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Obrázek 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1971675" y="2105025"/>
-          <a:ext cx="152381" cy="171429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66658</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171432</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Obrázek 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1562100" y="1933575"/>
-          <a:ext cx="133333" cy="142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>95231</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180954</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Obrázek 10"/>
+    <xdr:ext cx="152381" cy="171429"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Obrázek 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5938,380 +6563,11 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76181</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190479</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Obrázek 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1552575" y="1733550"/>
-          <a:ext cx="152381" cy="171429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>85708</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>171432</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Obrázek 12"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1981200" y="1743075"/>
-          <a:ext cx="133333" cy="142857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obrázek 1"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="1076325"/>
-          <a:ext cx="190500" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Obrázek 2"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1638300" y="1466850"/>
-          <a:ext cx="190500" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Obrázek 3"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2266950" y="1647825"/>
-          <a:ext cx="190500" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Obrázek 4"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2266950" y="1266825"/>
-          <a:ext cx="190500" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Obrázek 5"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2276475" y="1066800"/>
-          <a:ext cx="180975" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Obrázek 6"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1647825" y="1276350"/>
-          <a:ext cx="180975" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Obrázek 7"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2266950" y="1466850"/>
-          <a:ext cx="180975" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Obrázek 8"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1647825" y="1666875"/>
-          <a:ext cx="180975" cy="200025"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7044,10 +7300,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:S17"/>
+  <dimension ref="B1:S18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7077,32 +7333,32 @@
       <c r="D2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="82" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="82" t="s">
+      <c r="E2" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="86"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="124" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="126"/>
+      <c r="M2" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="128"/>
       <c r="R2" s="18" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="98" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -7111,50 +7367,50 @@
       <c r="D3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
       <c r="M3" s="67"/>
       <c r="N3" s="67"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="98"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="116"/>
       <c r="R3" s="15"/>
       <c r="S3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="118"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="120"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
+        <v>71</v>
+      </c>
+      <c r="E4" s="96"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="P4" s="101"/>
       <c r="R4" s="16"/>
       <c r="S4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="122"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="12" t="s">
         <v>22</v>
       </c>
@@ -7175,7 +7431,7 @@
       <c r="P5" s="66"/>
       <c r="R5" s="17"/>
       <c r="S5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
@@ -7188,25 +7444,25 @@
       <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="88"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="91"/>
       <c r="M6" s="67"/>
       <c r="N6" s="67"/>
-      <c r="O6" s="88"/>
-      <c r="P6" s="98"/>
+      <c r="O6" s="90"/>
+      <c r="P6" s="116"/>
       <c r="R6" s="78"/>
       <c r="S6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="89" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -7215,18 +7471,18 @@
       <c r="D7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="91"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="120"/>
       <c r="M7" s="79"/>
       <c r="N7" s="79"/>
-      <c r="O7" s="99"/>
-      <c r="P7" s="100"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="118"/>
       <c r="R7" s="2" t="s">
         <v>12</v>
       </c>
@@ -7235,25 +7491,25 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
-      <c r="K8" s="90"/>
-      <c r="L8" s="91"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="119"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="79"/>
       <c r="N8" s="79"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="118"/>
       <c r="R8" s="2" t="s">
         <v>17</v>
       </c>
@@ -7262,93 +7518,93 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="118"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="95"/>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="95"/>
+        <v>71</v>
+      </c>
+      <c r="E9" s="96"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="101"/>
+      <c r="P9" s="101"/>
       <c r="R9" s="68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="118"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="70" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="93"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="122"/>
       <c r="M10" s="74"/>
       <c r="N10" s="74"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="101"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="123"/>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="102" t="s">
         <v>1</v>
       </c>
       <c r="D11" s="103"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="97"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="107"/>
       <c r="I11" s="72"/>
       <c r="J11" s="73"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="107"/>
-      <c r="O11" s="107"/>
-      <c r="P11" s="107"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
       <c r="S11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="69" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
@@ -7358,25 +7614,35 @@
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="179" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="G9:P9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="G4:P4"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="K11:L11"/>
@@ -7393,20 +7659,15 @@
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="G9:P9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="E4:F4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7419,10 +7680,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:X16"/>
+  <dimension ref="B1:X24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7434,7 +7695,7 @@
   <sheetData>
     <row r="1" spans="2:24" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="2:24" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -7445,34 +7706,34 @@
         <v>19</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="80" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="M2" s="31" t="s">
         <v>85</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>88</v>
       </c>
       <c r="O2" s="18" t="s">
         <v>28</v>
@@ -7483,21 +7744,21 @@
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="89"/>
+        <v>103</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="126"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="154"/>
       <c r="J3" s="76"/>
       <c r="K3" s="77"/>
       <c r="L3" s="40"/>
       <c r="M3" s="41"/>
       <c r="O3" s="15"/>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="37"/>
       <c r="R3" s="37"/>
@@ -7513,183 +7774,229 @@
         <v>12</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="35"/>
       <c r="F4" s="42"/>
       <c r="G4" s="43"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="126"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="154"/>
       <c r="J4" s="42"/>
       <c r="K4" s="43"/>
       <c r="L4" s="44"/>
       <c r="M4" s="45"/>
       <c r="O4" s="16"/>
       <c r="P4" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B5" s="149" t="s">
+      <c r="B5" s="134" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="90"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="123"/>
-      <c r="K5" s="124"/>
-      <c r="L5" s="139"/>
-      <c r="M5" s="140"/>
+        <v>95</v>
+      </c>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="145"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="142"/>
       <c r="O5" s="46"/>
       <c r="P5" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B6" s="149"/>
+      <c r="B6" s="134"/>
       <c r="C6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="142"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="140"/>
-      <c r="O6" s="164"/>
+        <v>96</v>
+      </c>
+      <c r="D6" s="119"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="148"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="142"/>
+      <c r="O6" s="88"/>
       <c r="P6" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="149"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="144"/>
-      <c r="L7" s="139"/>
-      <c r="M7" s="140"/>
-      <c r="O7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" t="s">
-        <v>29</v>
+        <v>108</v>
+      </c>
+      <c r="D7" s="119"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="155"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="149"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="142"/>
+      <c r="O7" s="186"/>
+      <c r="P7" s="37" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="147" t="s">
-        <v>47</v>
+      <c r="B8" s="130" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="123"/>
-      <c r="K8" s="124"/>
-      <c r="L8" s="133"/>
-      <c r="M8" s="134"/>
-      <c r="O8" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="P8" t="s">
-        <v>30</v>
+        <v>109</v>
+      </c>
+      <c r="D8" s="110"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="132"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="132"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="135"/>
+      <c r="M8" s="136"/>
+      <c r="O8" s="190"/>
+      <c r="P8" s="37" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="9" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="148"/>
-      <c r="C9" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="110"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="137"/>
-      <c r="M9" s="138"/>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B9" s="181"/>
+      <c r="C9" s="70" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="183"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="183"/>
+      <c r="J9" s="182"/>
+      <c r="K9" s="183"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="185"/>
+      <c r="O9" s="10" t="s">
+        <v>12</v>
+      </c>
       <c r="P9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>92</v>
+      <c r="B10" s="181"/>
+      <c r="C10" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="188"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
+      <c r="O10" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="P10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>95</v>
+    <row r="11" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="131"/>
+      <c r="C11" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="112"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="152"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="140"/>
+      <c r="P11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>93</v>
+      <c r="B12" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="75" t="s">
-        <v>73</v>
+      <c r="B15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="25"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="75" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="179" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="25"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q23" s="187"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q24" s="187"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
+  <mergeCells count="32">
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="L11:M11"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
@@ -7700,14 +8007,16 @@
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7720,10 +8029,10 @@
   <sheetPr>
     <tabColor theme="3" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7734,24 +8043,24 @@
   <sheetData>
     <row r="1" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="103.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>35</v>
@@ -7765,90 +8074,128 @@
         <v>12</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="98"/>
+        <v>98</v>
+      </c>
+      <c r="D3" s="90"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="116"/>
       <c r="I3" s="15"/>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="89" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="154"/>
-      <c r="I4" s="48" t="s">
-        <v>12</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="161"/>
+      <c r="I4" s="174"/>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="118"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="157"/>
-      <c r="I5" s="48" t="s">
-        <v>17</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="164"/>
+      <c r="I5" s="178"/>
       <c r="J5" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="151"/>
-      <c r="C6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="160"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="89"/>
+      <c r="C6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="171"/>
+      <c r="E6" s="172"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="173"/>
+      <c r="I6" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>36</v>
+      <c r="B7" s="89"/>
+      <c r="C7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="175"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="177"/>
+      <c r="I7" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>96</v>
+    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="158"/>
+      <c r="C8" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="165"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="167"/>
+      <c r="I8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>40</v>
+      <c r="B9" s="18" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="180" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B4:B8"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
   </mergeCells>
@@ -7859,129 +8206,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="B1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" ht="103.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="98"/>
-      <c r="G3" s="15"/>
-      <c r="H3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="154"/>
-      <c r="G4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="118"/>
-      <c r="C5" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="157"/>
-      <c r="G5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="151"/>
-      <c r="C6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="160"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="-0.499984740745262"/>
@@ -8000,51 +8224,51 @@
   <sheetData>
     <row r="1" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="103.5" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="49" t="s">
         <v>35</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" s="52" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J2" s="52" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="52" t="s">
+      <c r="N2" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="M2" s="52" t="s">
+      <c r="O2" s="53" t="s">
         <v>60</v>
-      </c>
-      <c r="N2" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" s="53" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
@@ -8054,10 +8278,10 @@
       <c r="C3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="98"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="116"/>
       <c r="H3" s="60"/>
       <c r="I3" s="55"/>
       <c r="J3" s="55"/>
@@ -8068,16 +8292,16 @@
       <c r="O3" s="58"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="89" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="152"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="154"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="161"/>
       <c r="H4" s="54"/>
       <c r="I4" s="56"/>
       <c r="J4" s="61"/>
@@ -8088,14 +8312,14 @@
       <c r="O4" s="58"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="118"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="156"/>
-      <c r="F5" s="155"/>
-      <c r="G5" s="157"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="164"/>
       <c r="H5" s="60"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55"/>
@@ -8106,14 +8330,14 @@
       <c r="O5" s="58"/>
     </row>
     <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="151"/>
+      <c r="B6" s="158"/>
       <c r="C6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="158"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="158"/>
-      <c r="G6" s="160"/>
+      <c r="D6" s="165"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="165"/>
+      <c r="G6" s="167"/>
       <c r="H6" s="62"/>
       <c r="I6" s="57"/>
       <c r="J6" s="57"/>
@@ -8132,18 +8356,18 @@
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H8" s="51"/>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H9" s="50"/>
       <c r="I9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="H10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -8164,7 +8388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G18"/>
   <sheetViews>
@@ -8249,14 +8473,14 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D9" s="161" t="s">
+      <c r="D9" s="168" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="161"/>
-      <c r="F9" s="162" t="s">
+      <c r="E9" s="168"/>
+      <c r="F9" s="169" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="162"/>
+      <c r="G9" s="169"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -8319,14 +8543,14 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D15" s="162" t="s">
+      <c r="D15" s="169" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163" t="s">
+      <c r="E15" s="169"/>
+      <c r="F15" s="170" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="163"/>
+      <c r="G15" s="170"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
